--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\UIpath-WorkSpace\REF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FA98C2-D6DE-4BF6-ABBC-281EC5B64880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C062DA7-298C-4BC7-8A07-5EF5BB81CC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,136 +57,137 @@
     <t>SHA1_Online_URL</t>
   </si>
   <si>
+    <t>MaxRetryNumber</t>
+  </si>
+  <si>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with application exception. Must be integer</t>
+  </si>
+  <si>
+    <t>TimeoutShort</t>
+  </si>
+  <si>
+    <t>Timeout short value in milliseconds, for activities which are likely to fail. Must be integer</t>
+  </si>
+  <si>
+    <t>TimeoutMedium</t>
+  </si>
+  <si>
+    <t>Timeout medium value in milliseconds. Must be integer</t>
+  </si>
+  <si>
+    <t>TimeoutLong</t>
+  </si>
+  <si>
+    <t>Timeout short value in milliseconds, for slow apps. Must be integer</t>
+  </si>
+  <si>
+    <t>ExScreenshotsFolderPath</t>
+  </si>
+  <si>
+    <t>Exceptions_Screenshots</t>
+  </si>
+  <si>
+    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
+  </si>
+  <si>
+    <t>DelayShort</t>
+  </si>
+  <si>
+    <t>Delay short value in milliseconds, for activities where it is necessary to wait a little. Must be integer</t>
+  </si>
+  <si>
+    <t>DelayMedium</t>
+  </si>
+  <si>
+    <t>Delay medium value in milliseconds, for activities where it is necessary to wait a moderate amount of time. Must be integer</t>
+  </si>
+  <si>
+    <t>DelayLong</t>
+  </si>
+  <si>
+    <t>Delay long value in milliseconds, for activities where it is necessary to wait a long time. Must be integer</t>
+  </si>
+  <si>
+    <t>AccuracyLow</t>
+  </si>
+  <si>
+    <t>Image accuracy low value, for images that have high contrast. Must be double</t>
+  </si>
+  <si>
+    <t>AccuracyMedium</t>
+  </si>
+  <si>
+    <t>Image accuracy medium value, for images that have normal contrast. Must be double</t>
+  </si>
+  <si>
+    <t>AccuracyHigh</t>
+  </si>
+  <si>
+    <t>Image accuracy high value, for images that have low contrast. Must be double</t>
+  </si>
+  <si>
+    <t>LogMessage_GetTransactionData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processing Transaction Number: </t>
+  </si>
+  <si>
+    <t>Static part of logging message. Calling Get Transaction Data</t>
+  </si>
+  <si>
+    <t>LogMessage_GetTransactionDataError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
+  </si>
+  <si>
+    <t>Static part of logging message. Error retrieving Transaction Data.</t>
+  </si>
+  <si>
+    <t>LogMessage_Success</t>
+  </si>
+  <si>
+    <t>Transaction Successful.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction succesful</t>
+  </si>
+  <si>
+    <t>LogMessage_BusinessRuleException</t>
+  </si>
+  <si>
+    <t>Business rule exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception</t>
+  </si>
+  <si>
+    <t>LogMessage_ApplicationException</t>
+  </si>
+  <si>
+    <t>System exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with application exception</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Description (Assets will always overwrite other config)</t>
+  </si>
+  <si>
+    <t>System1_Credential</t>
+  </si>
+  <si>
+    <t>Uipath_Test</t>
+  </si>
+  <si>
+    <t>http://www.acme-test.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>http://www.sha1-online.com</t>
-  </si>
-  <si>
-    <t>MaxRetryNumber</t>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with application exception. Must be integer</t>
-  </si>
-  <si>
-    <t>TimeoutShort</t>
-  </si>
-  <si>
-    <t>Timeout short value in milliseconds, for activities which are likely to fail. Must be integer</t>
-  </si>
-  <si>
-    <t>TimeoutMedium</t>
-  </si>
-  <si>
-    <t>Timeout medium value in milliseconds. Must be integer</t>
-  </si>
-  <si>
-    <t>TimeoutLong</t>
-  </si>
-  <si>
-    <t>Timeout short value in milliseconds, for slow apps. Must be integer</t>
-  </si>
-  <si>
-    <t>ExScreenshotsFolderPath</t>
-  </si>
-  <si>
-    <t>Exceptions_Screenshots</t>
-  </si>
-  <si>
-    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
-  </si>
-  <si>
-    <t>DelayShort</t>
-  </si>
-  <si>
-    <t>Delay short value in milliseconds, for activities where it is necessary to wait a little. Must be integer</t>
-  </si>
-  <si>
-    <t>DelayMedium</t>
-  </si>
-  <si>
-    <t>Delay medium value in milliseconds, for activities where it is necessary to wait a moderate amount of time. Must be integer</t>
-  </si>
-  <si>
-    <t>DelayLong</t>
-  </si>
-  <si>
-    <t>Delay long value in milliseconds, for activities where it is necessary to wait a long time. Must be integer</t>
-  </si>
-  <si>
-    <t>AccuracyLow</t>
-  </si>
-  <si>
-    <t>Image accuracy low value, for images that have high contrast. Must be double</t>
-  </si>
-  <si>
-    <t>AccuracyMedium</t>
-  </si>
-  <si>
-    <t>Image accuracy medium value, for images that have normal contrast. Must be double</t>
-  </si>
-  <si>
-    <t>AccuracyHigh</t>
-  </si>
-  <si>
-    <t>Image accuracy high value, for images that have low contrast. Must be double</t>
-  </si>
-  <si>
-    <t>LogMessage_GetTransactionData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processing Transaction Number: </t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data</t>
-  </si>
-  <si>
-    <t>LogMessage_GetTransactionDataError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
-  </si>
-  <si>
-    <t>Static part of logging message. Error retrieving Transaction Data.</t>
-  </si>
-  <si>
-    <t>LogMessage_Success</t>
-  </si>
-  <si>
-    <t>Transaction Successful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful</t>
-  </si>
-  <si>
-    <t>LogMessage_BusinessRuleException</t>
-  </si>
-  <si>
-    <t>Business rule exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception</t>
-  </si>
-  <si>
-    <t>LogMessage_ApplicationException</t>
-  </si>
-  <si>
-    <t>System exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception</t>
-  </si>
-  <si>
-    <t>Asset</t>
-  </si>
-  <si>
-    <t>Description (Assets will always overwrite other config)</t>
-  </si>
-  <si>
-    <t>System1_Credential</t>
-  </si>
-  <si>
-    <t>Uipath_Test</t>
-  </si>
-  <si>
-    <t>http://www.acme-test.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +529,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -602,7 +603,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -610,7 +611,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1664,183 +1665,183 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>5000</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>30000</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>120000</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>1000</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>15000</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>60000</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>0.6</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>0.8</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>0.9</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2844,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2875,10 +2876,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
